--- a/main/ig/StructureDefinition-FrMedication2unique.xlsx
+++ b/main/ig/StructureDefinition-FrMedication2unique.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}frmed-med-1:If fr-medication is a simple medication, ingredient SHALL NOT be a Reference {code.coding.system.exists() implies (ingredient.item as Reference).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}frmed-med-1:If fr-medication is a simple medication, ingredient SHALL NOT be a Reference {code.coding.system.exists() implies (ingredient.item as Reference).empty()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -322,17 +322,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Medication.implicitRules</t>
   </si>
   <si>
@@ -352,9 +345,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.language</t>
   </si>
   <si>
@@ -432,6 +422,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Medication.extension</t>
   </si>
   <si>
@@ -452,16 +445,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -505,9 +488,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Medication.code</t>
@@ -567,10 +547,23 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -707,9 +700,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -900,13 +890,6 @@
   </si>
   <si>
     <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>no mapping</t>
@@ -961,13 +944,6 @@
   </si>
   <si>
     <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -1929,16 +1905,16 @@
         <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -1949,10 +1925,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1975,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2034,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2043,16 +2019,16 @@
         <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -2063,10 +2039,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2089,16 +2065,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2124,31 +2100,31 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2157,16 +2133,16 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -2177,14 +2153,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2203,16 +2179,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2262,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2271,16 +2247,16 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2291,14 +2267,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2317,16 +2293,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2376,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2394,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2405,14 +2381,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2431,16 +2407,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2478,19 +2454,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2499,16 +2475,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2519,14 +2495,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2545,19 +2521,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2594,19 +2570,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2615,16 +2591,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2635,10 +2611,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2661,16 +2637,16 @@
         <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2720,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2729,30 +2705,30 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2775,16 +2751,16 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2810,13 +2786,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2834,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2843,30 +2819,30 @@
         <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2889,13 +2865,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2946,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2964,7 +2940,7 @@
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -2975,14 +2951,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3001,16 +2977,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3048,19 +3024,19 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3069,16 +3045,16 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3089,10 +3065,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3115,19 +3091,19 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3164,19 +3140,19 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3185,33 +3161,33 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3233,19 +3209,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3270,14 +3246,14 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3294,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3303,30 +3279,30 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3349,13 +3325,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3406,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3424,7 +3400,7 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3435,14 +3411,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3461,16 +3437,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3508,19 +3484,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3529,16 +3505,16 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -3549,10 +3525,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3575,19 +3551,19 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3597,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>20</v>
@@ -3636,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3645,30 +3621,30 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3691,16 +3667,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3750,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3759,30 +3735,30 @@
         <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3805,19 +3781,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3845,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>20</v>
@@ -3866,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3875,30 +3849,30 @@
         <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3921,19 +3895,17 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3982,7 +3954,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3991,30 +3963,30 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4037,19 +4009,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4098,7 +4070,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4107,33 +4079,33 @@
         <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
@@ -4155,19 +4127,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4192,11 +4164,11 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4214,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4223,30 +4195,30 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4269,13 +4241,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4326,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4344,7 +4316,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4355,14 +4327,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4381,16 +4353,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4428,19 +4400,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4449,16 +4421,16 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4469,10 +4441,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4495,19 +4467,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4517,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>20</v>
@@ -4556,7 +4528,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4565,30 +4537,30 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4611,16 +4583,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4670,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4679,30 +4651,30 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4725,19 +4697,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4765,7 +4735,7 @@
         <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>20</v>
@@ -4786,7 +4756,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4795,30 +4765,30 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4841,19 +4811,17 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4902,7 +4870,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4911,30 +4879,30 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4957,19 +4925,19 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5018,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5027,33 +4995,33 @@
         <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5075,19 +5043,19 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5136,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5145,30 +5113,30 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5191,19 +5159,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5252,7 +5220,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5261,30 +5229,30 @@
         <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5307,16 +5275,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5342,13 +5310,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5366,7 +5334,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5375,16 +5343,16 @@
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5395,10 +5363,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5421,17 +5389,15 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5480,7 +5446,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5489,30 +5455,30 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5535,16 +5501,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5570,13 +5536,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5594,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5603,30 +5569,30 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5649,17 +5615,15 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5708,7 +5672,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5717,30 +5681,30 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5763,16 +5727,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5822,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5831,16 +5795,16 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5851,10 +5815,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5877,13 +5841,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5934,7 +5898,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5952,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -5963,14 +5927,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5989,16 +5953,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6036,19 +6000,19 @@
         <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6057,16 +6021,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6077,14 +6041,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6103,19 +6067,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6164,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6173,16 +6137,16 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6193,10 +6157,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6219,17 +6183,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6278,7 +6242,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6287,30 +6251,30 @@
         <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6333,17 +6297,17 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6392,7 +6356,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6401,16 +6365,16 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6421,10 +6385,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6447,17 +6411,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6506,7 +6468,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6515,30 +6477,30 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6561,13 +6523,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6618,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6627,16 +6589,16 @@
         <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6647,10 +6609,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6673,13 +6635,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6730,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6748,7 +6710,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -6759,14 +6721,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6785,16 +6747,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6832,19 +6794,19 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6853,16 +6815,16 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -6873,14 +6835,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6899,19 +6861,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -6960,7 +6922,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6969,16 +6931,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -6989,10 +6951,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7015,17 +6977,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7074,7 +7034,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7083,30 +7043,30 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7129,13 +7089,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7186,7 +7146,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7195,22 +7155,22 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
